--- a/config/only valve only PH extended belviq cardio adr.xlsx
+++ b/config/only valve only PH extended belviq cardio adr.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10812"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boris/temp/paper configs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5194F0F1-6AB7-EC47-B32E-7C2D16E825F5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="31920" windowHeight="18020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name=" pulmonary (3)" sheetId="5" r:id="rId1"/>
-    <sheet name="valave " sheetId="4" r:id="rId2"/>
+    <sheet name=" pulmonary" sheetId="5" r:id="rId1"/>
+    <sheet name="valve " sheetId="4" r:id="rId2"/>
     <sheet name="cardio non valve and pulmonary" sheetId="1" r:id="rId3"/>
-    <sheet name="valave and pulmonary" sheetId="2" r:id="rId4"/>
-    <sheet name="cardio total" sheetId="3" r:id="rId5"/>
+    <sheet name="cardio total" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="322">
   <si>
     <t>Acute myocardial infarction</t>
   </si>
@@ -994,12 +999,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -1070,7 +1075,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1111,11 +1116,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
@@ -1398,253 +1398,253 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B73"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="25"/>
-    <col min="2" max="2" width="36.19921875" style="25" customWidth="1"/>
-    <col min="3" max="16384" width="8.796875" style="25"/>
+    <col min="1" max="1" width="8.83203125" style="22"/>
+    <col min="2" max="2" width="36.1640625" style="22" customWidth="1"/>
+    <col min="3" max="16384" width="8.83203125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="26" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="26" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="26" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B5" s="29" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5" s="26" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B6" s="29" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="26" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B7" s="29" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7" s="26" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B8" s="30" t="s">
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B8" s="27" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B9" s="30" t="s">
+    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B9" s="27" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B10" s="30" t="s">
+    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B10" s="27" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B11" s="28" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B11" s="25" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B12" s="29" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B12" s="26" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B13" s="26" t="s">
+    <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B13" s="23" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B14" s="26"/>
-    </row>
-    <row r="15" spans="1:2" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B15" s="26"/>
-    </row>
-    <row r="16" spans="1:2" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B16" s="26"/>
-    </row>
-    <row r="17" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B17" s="27"/>
-    </row>
-    <row r="18" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B18" s="26"/>
-    </row>
-    <row r="19" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B19" s="26"/>
-    </row>
-    <row r="20" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B20" s="27"/>
-    </row>
-    <row r="21" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B21" s="27"/>
-    </row>
-    <row r="22" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B22" s="27"/>
-    </row>
-    <row r="23" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B23" s="26"/>
-    </row>
-    <row r="24" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B24" s="26"/>
-    </row>
-    <row r="25" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B25" s="27"/>
-    </row>
-    <row r="26" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B26" s="26"/>
-    </row>
-    <row r="27" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B27" s="27"/>
-    </row>
-    <row r="28" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B28" s="27"/>
-    </row>
-    <row r="29" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B29" s="26"/>
-    </row>
-    <row r="30" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B30" s="27"/>
-    </row>
-    <row r="31" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B31" s="26"/>
-    </row>
-    <row r="32" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B32" s="27"/>
-    </row>
-    <row r="33" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B33" s="26"/>
-    </row>
-    <row r="34" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B34" s="26"/>
-    </row>
-    <row r="35" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B35" s="27"/>
-    </row>
-    <row r="36" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B36" s="27"/>
-    </row>
-    <row r="37" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B37" s="26"/>
-    </row>
-    <row r="38" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B38" s="27"/>
-    </row>
-    <row r="39" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B39" s="27"/>
-    </row>
-    <row r="40" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B40" s="26"/>
-    </row>
-    <row r="41" spans="2:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B41" s="27"/>
-    </row>
-    <row r="42" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B42" s="26"/>
-    </row>
-    <row r="43" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B43" s="26"/>
-    </row>
-    <row r="44" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B44" s="26"/>
-    </row>
-    <row r="45" spans="2:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B45" s="27"/>
-    </row>
-    <row r="46" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B46" s="26"/>
-    </row>
-    <row r="47" spans="2:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B47" s="27"/>
-    </row>
-    <row r="48" spans="2:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B48" s="27"/>
-    </row>
-    <row r="49" spans="2:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B49" s="27"/>
-    </row>
-    <row r="50" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B50" s="26"/>
-    </row>
-    <row r="51" spans="2:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B51" s="27"/>
-    </row>
-    <row r="52" spans="2:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B52" s="27"/>
-    </row>
-    <row r="53" spans="2:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B53" s="27"/>
-    </row>
-    <row r="54" spans="2:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B54" s="27"/>
-    </row>
-    <row r="55" spans="2:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B55" s="27"/>
-    </row>
-    <row r="56" spans="2:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B56" s="27"/>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" s="28"/>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="28"/>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="28"/>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="28"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="29"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="28"/>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="28"/>
+    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B14" s="23"/>
+    </row>
+    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B15" s="23"/>
+    </row>
+    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B16" s="23"/>
+    </row>
+    <row r="17" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B17" s="24"/>
+    </row>
+    <row r="18" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B18" s="23"/>
+    </row>
+    <row r="19" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B19" s="23"/>
+    </row>
+    <row r="20" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B20" s="24"/>
+    </row>
+    <row r="21" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B21" s="24"/>
+    </row>
+    <row r="22" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B22" s="24"/>
+    </row>
+    <row r="23" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B23" s="23"/>
+    </row>
+    <row r="24" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B24" s="23"/>
+    </row>
+    <row r="25" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B25" s="24"/>
+    </row>
+    <row r="26" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B26" s="23"/>
+    </row>
+    <row r="27" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B27" s="24"/>
+    </row>
+    <row r="28" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B28" s="24"/>
+    </row>
+    <row r="29" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B29" s="23"/>
+    </row>
+    <row r="30" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B30" s="24"/>
+    </row>
+    <row r="31" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B31" s="23"/>
+    </row>
+    <row r="32" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B32" s="24"/>
+    </row>
+    <row r="33" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B33" s="23"/>
+    </row>
+    <row r="34" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B34" s="23"/>
+    </row>
+    <row r="35" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B35" s="24"/>
+    </row>
+    <row r="36" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B36" s="24"/>
+    </row>
+    <row r="37" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B37" s="23"/>
+    </row>
+    <row r="38" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B38" s="24"/>
+    </row>
+    <row r="39" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B39" s="24"/>
+    </row>
+    <row r="40" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B40" s="23"/>
+    </row>
+    <row r="41" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B41" s="24"/>
+    </row>
+    <row r="42" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B42" s="23"/>
+    </row>
+    <row r="43" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B43" s="23"/>
+    </row>
+    <row r="44" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B44" s="23"/>
+    </row>
+    <row r="45" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B45" s="24"/>
+    </row>
+    <row r="46" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B46" s="23"/>
+    </row>
+    <row r="47" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B47" s="24"/>
+    </row>
+    <row r="48" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B48" s="24"/>
+    </row>
+    <row r="49" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B49" s="24"/>
+    </row>
+    <row r="50" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B50" s="23"/>
+    </row>
+    <row r="51" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B51" s="24"/>
+    </row>
+    <row r="52" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B52" s="24"/>
+    </row>
+    <row r="53" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B53" s="24"/>
+    </row>
+    <row r="54" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B54" s="24"/>
+    </row>
+    <row r="55" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B55" s="24"/>
+    </row>
+    <row r="56" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B56" s="24"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B57" s="25"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B58" s="25"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B59" s="25"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B64" s="25"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B65" s="26"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B66" s="25"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B71" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1652,324 +1652,324 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="25"/>
-    <col min="2" max="2" width="36.19921875" style="25" customWidth="1"/>
-    <col min="3" max="16384" width="8.796875" style="25"/>
+    <col min="1" max="1" width="8.83203125" style="22"/>
+    <col min="2" max="2" width="36.1640625" style="22" customWidth="1"/>
+    <col min="3" max="16384" width="8.83203125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="23" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="23" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="23" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B5" s="27" t="s">
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B5" s="24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B6" s="26" t="s">
+    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B6" s="23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B7" s="26" t="s">
+    <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B7" s="23" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B8" s="27" t="s">
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B8" s="24" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B9" s="27" t="s">
+    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B9" s="24" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B10" s="27" t="s">
+    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B10" s="24" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B11" s="26" t="s">
+    <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B11" s="23" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B12" s="26" t="s">
+    <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B12" s="23" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B13" s="27" t="s">
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B13" s="24" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B14" s="26" t="s">
+    <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B14" s="23" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B15" s="27" t="s">
+    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B15" s="24" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B16" s="27" t="s">
+    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B16" s="24" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B17" s="26" t="s">
+    <row r="17" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B17" s="23" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B18" s="27" t="s">
+    <row r="18" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B18" s="24" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B19" s="26" t="s">
+    <row r="19" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B19" s="23" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B20" s="27" t="s">
+    <row r="20" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B20" s="24" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B21" s="26" t="s">
+    <row r="21" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B21" s="23" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B22" s="26" t="s">
+    <row r="22" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B22" s="23" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B23" s="27" t="s">
+    <row r="23" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B23" s="24" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B24" s="27" t="s">
+    <row r="24" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B24" s="24" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B25" s="26" t="s">
+    <row r="25" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B25" s="23" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B26" s="27" t="s">
+    <row r="26" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B26" s="24" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B27" s="27" t="s">
+    <row r="27" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B27" s="24" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B28" s="26" t="s">
+    <row r="28" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B28" s="23" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B29" s="27" t="s">
+    <row r="29" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B29" s="24" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="30" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B30" s="26" t="s">
+    <row r="30" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B30" s="23" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="31" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B31" s="26" t="s">
+    <row r="31" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B31" s="23" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="32" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B32" s="26" t="s">
+    <row r="32" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B32" s="23" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B33" s="27" t="s">
+    <row r="33" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B33" s="24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B34" s="26" t="s">
+    <row r="34" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B34" s="23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B35" s="27" t="s">
+    <row r="35" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B35" s="24" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B36" s="27" t="s">
+    <row r="36" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B36" s="24" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B37" s="27" t="s">
+    <row r="37" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B37" s="24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B38" s="26" t="s">
+    <row r="38" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B38" s="23" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B39" s="27" t="s">
+    <row r="39" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B39" s="24" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B40" s="27" t="s">
+    <row r="40" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B40" s="24" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="41" spans="2:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B41" s="27" t="s">
+    <row r="41" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B41" s="24" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="42" spans="2:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B42" s="27" t="s">
+    <row r="42" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B42" s="24" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="43" spans="2:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B43" s="27" t="s">
+    <row r="43" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B43" s="24" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="44" spans="2:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B44" s="27" t="s">
+    <row r="44" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B44" s="24" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="28" t="s">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B45" s="25" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" s="28" t="s">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B46" s="25" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="28" t="s">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B47" s="25" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="25" t="s">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B48" s="22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="25" t="s">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" s="22" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="25" t="s">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" s="22" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="25" t="s">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" s="22" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="28" t="s">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B52" s="25" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="29" t="s">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B53" s="26" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="28" t="s">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B54" s="25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="25" t="s">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B55" s="22" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" s="25" t="s">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B56" s="22" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" s="25" t="s">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B57" s="22" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="25" t="s">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B58" s="22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="28" t="s">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B59" s="25" t="s">
         <v>321</v>
       </c>
     </row>
@@ -1979,21 +1979,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B252"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A238" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B255" sqref="B255"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.09765625" customWidth="1"/>
-    <col min="2" max="2" width="45.8984375" customWidth="1"/>
-    <col min="3" max="3" width="28.3984375" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="45.83203125" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -2025,1264 +2025,1264 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" s="18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" s="18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B8" s="18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B9" s="18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" s="18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B11" s="18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B12" s="18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B13" s="18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B14" s="18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B15" s="18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B16" s="18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="18" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="18" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" s="18" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" s="18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" s="18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" s="18" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26" s="18" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27" s="18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" s="18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30" s="18" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31" s="18" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B32" s="18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" s="18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" s="18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" s="18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" s="18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" s="18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" s="18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" s="18" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B41" s="18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B42" s="18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B43" s="18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B44" s="18" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B45" s="18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B46" s="18" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B47" s="18" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B48" s="18" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" s="18" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" s="18" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" s="18" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52" s="18" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53" s="18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B54" s="18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" s="18" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56" s="17" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57" s="18" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="58" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58" s="17" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B59" s="18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60" s="17" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="61" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B61" s="18" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B62" s="17" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B63" s="17" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="64" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B64" s="17" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="65" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B65" s="17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B66" s="18" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="67" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B67" s="16" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="68" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B68" s="19" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="69" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B69" s="19" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="70" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B70" s="19" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="71" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B71" s="19" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B72" s="20" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="73" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B73" s="19" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="74" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B74" s="19" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="75" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B75" s="21" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="76" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B76" s="16" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="77" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B77" s="19" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="78" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B78" s="19" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="79" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B79" s="19" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="80" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B80" s="19" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B81" s="20" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="82" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B82" s="20" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B83" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="84" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B84" s="18" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="85" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B85" s="20" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="86" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B86" s="19" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="87" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B87" s="19" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="88" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B88" s="20" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="89" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B89" s="19" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="90" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B90" s="20" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="91" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B91" s="18" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="92" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B92" s="19" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="93" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B93" s="19" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="94" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B94" s="20" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="95" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B95" s="19" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="96" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B96" s="19" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B97" s="19" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="98" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B98" s="20" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="99" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B99" s="20" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="100" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B100" s="19" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="101" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B101" s="19" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="102" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B102" s="18" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="103" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B103" s="19" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="104" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B104" s="19" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="105" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B105" s="20" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="106" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B106" s="19" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="107" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B107" s="19" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="108" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B108" s="20" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="109" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B109" s="19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B110" s="19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B111" s="20" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="112" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B112" s="19" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="113" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B113" s="19" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="114" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B114" s="19" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="115" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B115" s="18" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="116" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B116" s="18" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="117" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B117" s="19" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="118" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B118" s="19" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="119" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B119" s="20" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="120" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B120" s="19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B121" s="20" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B122" s="19" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="123" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B123" s="19" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="124" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B124" s="20" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="125" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B125" s="20" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="126" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B126" s="20" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="127" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B127" s="20" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="128" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B128" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="129" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B129" s="20" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="130" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B130" s="19" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="131" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B131" s="19" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="132" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B132" s="18" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="133" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B133" s="18" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="134" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B134" s="18" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="135" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B135" s="18" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="136" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B136" s="18" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="137" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B137" s="18" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="138" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B138" s="18" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="139" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B139" s="18" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="140" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B140" s="18" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="141" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B141" s="18" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="142" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B142" s="18" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="143" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B143" s="20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B144" s="18" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="145" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B145" s="19" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="146" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B146" s="19" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="147" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B147" s="20" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="148" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B148" s="20" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="149" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B149" s="19" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="150" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B150" s="17" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="151" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B151" s="18" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="152" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B152" s="18" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="153" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B153" s="18" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="154" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B154" s="18" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="155" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B155" s="18" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="156" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B156" s="18" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="157" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B157" s="18" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="158" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B158" s="18" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="159" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B159" s="18" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="160" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B160" s="18" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="161" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B161" s="18" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="162" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B162" s="18" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="163" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B163" s="18" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="164" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B164" s="18" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="165" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B165" s="18" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="166" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B166" s="18" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="167" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B167" s="18" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="168" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B168" s="18" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="169" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B169" s="18" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="170" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B170" s="18" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="171" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B171" s="18" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="172" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B172" s="18" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="173" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B173" s="18" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="174" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B174" s="18" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="175" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B175" s="18" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="176" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B176" s="18" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="177" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B177" s="18" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="178" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B178" s="18" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="179" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B179" s="18" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="180" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B180" s="18" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="181" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B181" s="18" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="182" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B182" s="18" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="183" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B183" s="18" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="184" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B184" s="18" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="185" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B185" s="18" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="186" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B186" s="18" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="187" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B187" s="18" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="188" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B188" s="18" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="189" spans="2:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:2" ht="30" x14ac:dyDescent="0.2">
       <c r="B189" s="18" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="190" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B190" s="18" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="191" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B191" s="18" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="192" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B192" s="18" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="193" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B193" s="18" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="194" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B194" s="18" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="195" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B195" s="18" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="196" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B196" s="18" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="197" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B197" s="18" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="198" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B198" s="18" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="199" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B199" s="18" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="200" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B200" s="18" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="201" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B201" s="18" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="202" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B202" s="18" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="203" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B203" s="18" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="204" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B204" s="18" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="205" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B205" s="18" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="206" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B206" s="18" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="207" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B207" s="18" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="208" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B208" s="18" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="209" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B209" s="18" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="210" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B210" s="18" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="211" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B211" s="18" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="212" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B212" s="18" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="213" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B213" s="18" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="214" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B214" s="18" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="215" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B215" s="18" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="216" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B216" s="18" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="217" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B217" s="18" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="218" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B218" s="18" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="219" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B219" s="18" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="220" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B220" s="18" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="221" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B221" s="18" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="222" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B222" s="18" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="223" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B223" s="18" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="224" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B224" s="18" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="225" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B225" s="18" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="226" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B226" s="18" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="227" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B227" s="18" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="228" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B228" s="18" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="229" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B229" s="18" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="230" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B230" s="18" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="231" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B231" s="18" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="232" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B232" s="18" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="233" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B233" s="18" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="234" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B234" s="18" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="235" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B235" s="18" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="236" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B236" s="18" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="237" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B237" s="18" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="238" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B238" s="18" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="239" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B239" s="18" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="240" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B240" s="18" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="241" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B241" s="18" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="242" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B242" s="18" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="243" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B243" s="18" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="244" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B244" s="18" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="245" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B245" s="18" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="246" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B246" s="18" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="247" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B247" s="18" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="248" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B248" s="18" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="249" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B249" s="18" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="250" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B250" s="20" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="251" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B251" s="20" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="252" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B252" s="20" t="s">
         <v>264</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="http://bioportal.bioontology.org/ontologies/ICD10CM?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FICD10CM%2FI21.3"/>
-    <hyperlink ref="B14" r:id="rId2" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10030001"/>
-    <hyperlink ref="B15" r:id="rId3" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10011108"/>
-    <hyperlink ref="B16" r:id="rId4" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10021922"/>
-    <hyperlink ref="B26" r:id="rId5" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10078240"/>
-    <hyperlink ref="B27" r:id="rId6" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10036886"/>
-    <hyperlink ref="B29" r:id="rId7" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10037705"/>
-    <hyperlink ref="B30" r:id="rId8" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10078242"/>
-    <hyperlink ref="B32" r:id="rId9" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10003674"/>
-    <hyperlink ref="B33" r:id="rId10" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10054581"/>
-    <hyperlink ref="B40" r:id="rId11" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10014387"/>
-    <hyperlink ref="B65" r:id="rId12" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10043821"/>
-    <hyperlink ref="B66" r:id="rId13" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10036359"/>
-    <hyperlink ref="B68" r:id="rId14" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10023027"/>
-    <hyperlink ref="B69" r:id="rId15" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10014515"/>
-    <hyperlink ref="B71" r:id="rId16" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10072761"/>
+    <hyperlink ref="B4" r:id="rId1" display="http://bioportal.bioontology.org/ontologies/ICD10CM?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FICD10CM%2FI21.3" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B14" r:id="rId2" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10030001" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="B15" r:id="rId3" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10011108" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="B16" r:id="rId4" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10021922" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="B26" r:id="rId5" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10078240" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="B27" r:id="rId6" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10036886" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="B29" r:id="rId7" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10037705" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="B30" r:id="rId8" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10078242" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="B32" r:id="rId9" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10003674" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="B33" r:id="rId10" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10054581" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="B40" r:id="rId11" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10014387" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="B65" r:id="rId12" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10043821" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="B66" r:id="rId13" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10036359" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="B68" r:id="rId14" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10023027" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="B69" r:id="rId15" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10014515" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="B71" r:id="rId16" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10072761" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId17"/>
@@ -3290,404 +3290,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:B322"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B71" sqref="B2:B71"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B322" sqref="B322"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="36.19921875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B5" s="23" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B6" s="23" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B7" s="23" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B8" s="24" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B9" s="24" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B10" s="24" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B11" s="22" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B12" s="23" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B13" s="26" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B14" s="26" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B15" s="26" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B16" s="26" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B17" s="27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B18" s="26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B19" s="26" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B20" s="27" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B21" s="27" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B22" s="27" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B23" s="26" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B24" s="26" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B25" s="27" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B26" s="26" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B27" s="27" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B28" s="27" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B29" s="26" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B30" s="27" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B31" s="26" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B32" s="27" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B33" s="26" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B34" s="26" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B35" s="27" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B36" s="27" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B37" s="26" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B38" s="27" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B39" s="27" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B40" s="26" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B41" s="27" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B42" s="26" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B43" s="26" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B44" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B45" s="27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B46" s="26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B47" s="27" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B48" s="27" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B49" s="27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B50" s="26" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B51" s="27" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B52" s="27" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B53" s="27" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B54" s="27" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B55" s="27" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B56" s="27" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" s="28" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="28" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="28" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" s="25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" s="25" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="25" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="25" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="28" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="29" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="25" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="25" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="25" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="28" t="s">
-        <v>321</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B322"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A283" workbookViewId="0">
-      <selection activeCell="B253" sqref="B253"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -3695,7 +3310,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -3703,7 +3318,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -3711,7 +3326,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -3719,1593 +3334,1593 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B41" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B42" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B43" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B44" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B45" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B46" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B47" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B48" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B54" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="58" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B59" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="61" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B61" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B62" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B63" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="64" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B64" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="65" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B65" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B66" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="67" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="68" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B68" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="69" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B69" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="70" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B70" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="71" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B71" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B72" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="73" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B73" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="74" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B74" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="75" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B75" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="76" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B76" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="77" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B77" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="78" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B78" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="79" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B79" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="80" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B80" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B81" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="82" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B82" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B83" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="84" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B84" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="85" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B85" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="86" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B86" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="87" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B87" s="9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="88" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B88" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="89" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B89" s="9" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="90" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="91" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B91" s="8" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="92" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B92" s="9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="93" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B93" s="9" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="94" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B94" s="10" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="95" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B95" s="9" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="96" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B96" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B97" s="9" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="98" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B98" s="10" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="99" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="100" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B100" s="9" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="101" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B101" s="9" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="102" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B102" s="8" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="103" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B103" s="9" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="104" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B104" s="9" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="105" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B105" s="10" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="106" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B106" s="9" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="107" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B107" s="9" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="108" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B108" s="10" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="109" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B109" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B110" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B111" s="10" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="112" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B112" s="9" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="113" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B113" s="9" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="114" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B114" s="9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="115" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B115" s="8" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="116" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B116" s="8" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="117" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B117" s="9" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="118" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B118" s="9" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="119" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B119" s="10" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="120" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B120" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B121" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B122" s="9" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="123" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B123" s="9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="124" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B124" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="125" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B125" s="10" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="126" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B126" s="10" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="127" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B127" s="10" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="128" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B128" s="9" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="129" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B129" s="10" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="130" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B130" s="9" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="131" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B131" s="9" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="132" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B132" s="12" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="133" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B133" s="12" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="134" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B134" s="12" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="135" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B135" s="12" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="136" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B136" s="12" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="137" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B137" s="12" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="138" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B138" s="12" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="139" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B139" s="12" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="140" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B140" s="12" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="141" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B141" s="12" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="142" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B142" s="12" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="143" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B143" s="14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B144" s="12" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="145" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B145" s="13" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="146" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B146" s="13" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="147" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B147" s="14" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="148" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B148" s="14" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="149" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B149" s="13" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="150" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B150" s="11" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="151" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B151" s="12" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="152" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B152" s="12" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="153" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B153" s="12" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="154" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B154" s="12" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="155" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B155" s="12" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="156" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B156" s="12" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="157" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B157" s="12" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="158" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B158" s="12" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="159" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B159" s="12" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="160" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B160" s="15" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="161" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B161" s="15" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="162" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B162" s="15" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="163" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B163" s="15" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="164" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B164" s="15" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="165" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B165" s="15" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="166" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B166" s="15" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="167" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B167" s="15" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="168" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B168" s="15" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="169" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B169" s="15" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="170" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B170" s="15" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="171" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B171" s="15" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="172" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B172" s="15" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="173" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B173" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="174" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B174" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="175" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B175" s="15" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="176" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B176" s="15" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="177" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B177" s="15" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="178" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B178" s="15" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="179" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B179" s="15" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="180" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B180" s="15" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="181" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B181" s="15" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="182" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B182" s="15" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="183" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B183" s="15" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="184" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B184" s="15" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="185" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B185" s="15" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="186" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B186" s="15" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="187" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B187" s="15" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="188" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B188" s="15" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="189" spans="2:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:2" ht="30" x14ac:dyDescent="0.2">
       <c r="B189" s="15" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="190" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B190" s="15" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="191" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B191" s="15" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="192" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B192" s="15" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="193" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B193" s="15" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="194" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B194" s="15" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="195" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B195" s="15" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="196" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B196" s="15" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="197" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B197" s="15" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="198" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B198" s="15" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="199" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B199" s="15" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="200" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B200" s="15" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="201" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B201" s="15" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="202" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B202" s="15" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="203" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B203" s="15" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="204" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B204" s="15" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="205" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B205" s="15" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="206" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B206" s="15" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="207" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B207" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="208" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B208" s="15" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="209" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B209" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="210" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B210" s="15" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="211" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B211" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="212" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B212" s="15" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="213" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B213" s="15" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="214" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B214" s="15" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="215" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B215" s="15" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="216" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B216" s="15" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="217" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B217" s="15" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="218" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B218" s="15" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="219" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B219" s="15" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="220" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B220" s="15" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="221" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B221" s="15" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="222" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B222" s="15" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="223" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B223" s="15" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="224" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B224" s="15" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="225" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B225" s="15" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="226" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B226" s="15" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="227" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B227" s="15" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="228" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B228" s="15" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="229" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B229" s="15" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="230" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B230" s="15" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="231" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B231" s="15" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="232" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B232" s="15" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="233" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B233" s="15" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="234" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B234" s="15" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="235" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B235" s="15" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="236" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B236" s="15" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="237" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B237" s="15" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="238" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B238" s="15" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="239" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B239" s="15" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="240" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B240" s="15" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="241" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B241" s="15" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="242" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B242" s="15" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="243" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B243" s="15" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="244" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B244" s="15" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="245" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B245" s="15" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="246" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B246" s="15" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="247" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B247" s="15" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="248" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B248" s="15" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="249" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B249" s="15" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="250" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B250" s="20" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="251" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B251" s="20" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="252" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B252" s="20" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="253" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B253" s="29" t="s">
+    <row r="253" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B253" s="26" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="254" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B254" s="29" t="s">
+    <row r="254" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B254" s="26" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="255" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B255" s="29" t="s">
+    <row r="255" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B255" s="26" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="256" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B256" s="29" t="s">
+    <row r="256" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B256" s="26" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="257" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B257" s="29" t="s">
+    <row r="257" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B257" s="26" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="258" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B258" s="29" t="s">
+    <row r="258" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B258" s="26" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="259" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B259" s="30" t="s">
+    <row r="259" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B259" s="27" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="260" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B260" s="30" t="s">
+    <row r="260" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B260" s="27" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="261" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B261" s="30" t="s">
+    <row r="261" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B261" s="27" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="262" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B262" s="28" t="s">
+    <row r="262" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B262" s="25" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="263" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B263" s="29" t="s">
+    <row r="263" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B263" s="26" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="264" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B264" s="26" t="s">
+    <row r="264" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B264" s="23" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="265" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B265" s="26" t="s">
+    <row r="265" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B265" s="23" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="266" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B266" s="26" t="s">
+    <row r="266" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B266" s="23" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="267" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B267" s="26" t="s">
+    <row r="267" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B267" s="23" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="268" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B268" s="27" t="s">
+    <row r="268" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B268" s="24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="269" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B269" s="26" t="s">
+    <row r="269" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B269" s="23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="270" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B270" s="26" t="s">
+    <row r="270" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B270" s="23" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="271" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B271" s="27" t="s">
+    <row r="271" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B271" s="24" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="272" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B272" s="27" t="s">
+    <row r="272" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B272" s="24" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="273" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B273" s="27" t="s">
+    <row r="273" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B273" s="24" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="274" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B274" s="26" t="s">
+    <row r="274" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B274" s="23" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="275" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B275" s="26" t="s">
+    <row r="275" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B275" s="23" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="276" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B276" s="27" t="s">
+    <row r="276" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B276" s="24" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="277" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B277" s="26" t="s">
+    <row r="277" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B277" s="23" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="278" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B278" s="27" t="s">
+    <row r="278" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B278" s="24" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="279" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B279" s="27" t="s">
+    <row r="279" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B279" s="24" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="280" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B280" s="26" t="s">
+    <row r="280" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B280" s="23" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="281" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B281" s="27" t="s">
+    <row r="281" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B281" s="24" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="282" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B282" s="26" t="s">
+    <row r="282" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B282" s="23" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="283" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B283" s="27" t="s">
+    <row r="283" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B283" s="24" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="284" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B284" s="26" t="s">
+    <row r="284" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B284" s="23" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="285" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B285" s="26" t="s">
+    <row r="285" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B285" s="23" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="286" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B286" s="27" t="s">
+    <row r="286" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B286" s="24" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="287" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B287" s="27" t="s">
+    <row r="287" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B287" s="24" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="288" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B288" s="26" t="s">
+    <row r="288" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B288" s="23" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="289" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B289" s="27" t="s">
+    <row r="289" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B289" s="24" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="290" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B290" s="27" t="s">
+    <row r="290" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B290" s="24" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="291" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B291" s="26" t="s">
+    <row r="291" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B291" s="23" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="292" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B292" s="27" t="s">
+    <row r="292" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B292" s="24" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="293" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B293" s="26" t="s">
+    <row r="293" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B293" s="23" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="294" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B294" s="26" t="s">
+    <row r="294" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B294" s="23" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="295" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B295" s="26" t="s">
+    <row r="295" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B295" s="23" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="296" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B296" s="27" t="s">
+    <row r="296" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B296" s="24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="297" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B297" s="26" t="s">
+    <row r="297" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B297" s="23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="298" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B298" s="27" t="s">
+    <row r="298" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B298" s="24" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="299" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B299" s="27" t="s">
+    <row r="299" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B299" s="24" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="300" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B300" s="27" t="s">
+    <row r="300" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B300" s="24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="301" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B301" s="26" t="s">
+    <row r="301" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B301" s="23" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="302" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B302" s="27" t="s">
+    <row r="302" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B302" s="24" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="303" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B303" s="27" t="s">
+    <row r="303" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B303" s="24" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="304" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B304" s="27" t="s">
+    <row r="304" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B304" s="24" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="305" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B305" s="27" t="s">
+    <row r="305" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B305" s="24" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="306" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B306" s="27" t="s">
+    <row r="306" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B306" s="24" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="307" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B307" s="27" t="s">
+    <row r="307" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B307" s="24" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="308" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B308" s="28" t="s">
+    <row r="308" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B308" s="25" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="309" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B309" s="28" t="s">
+    <row r="309" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B309" s="25" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="310" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B310" s="28" t="s">
+    <row r="310" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B310" s="25" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="311" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B311" s="25" t="s">
+    <row r="311" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B311" s="22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="312" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B312" s="25" t="s">
+    <row r="312" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B312" s="22" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="313" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B313" s="25" t="s">
+    <row r="313" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B313" s="22" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="314" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B314" s="25" t="s">
+    <row r="314" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B314" s="22" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="315" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B315" s="28" t="s">
+    <row r="315" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B315" s="25" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="316" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B316" s="29" t="s">
+    <row r="316" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B316" s="26" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="317" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B317" s="28" t="s">
+    <row r="317" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B317" s="25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="318" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B318" s="25" t="s">
+    <row r="318" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B318" s="22" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="319" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B319" s="25" t="s">
+    <row r="319" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B319" s="22" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="320" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B320" s="25" t="s">
+    <row r="320" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B320" s="22" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="321" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B321" s="25" t="s">
+    <row r="321" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B321" s="22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="322" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B322" s="28" t="s">
+    <row r="322" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B322" s="25" t="s">
         <v>321</v>
       </c>
     </row>
